--- a/serverxlsx/global.xlsx
+++ b/serverxlsx/global.xlsx
@@ -443,7 +443,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
